--- a/biology/Botanique/Copaifera/Copaifera.xlsx
+++ b/biology/Botanique/Copaifera/Copaifera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Copaifera est un genre botanique composé de 25 à 43 espèces d'arbres tropicaux.
 </t>
@@ -513,21 +525,94 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Selon NCBI  (13 juil. 2010)[1]
-Copaifera coriacea
+          <t>Selon NCBI  (13 juil. 2010)[1]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Copaifera coriacea
 Copaifera langsdorffii
 Copaifera mildbraedii
 Copaifera multijuga
 Copaifera oblongifolia
 Copaifera officinalis
 Copaifera salikounda
-Copaifera trapezifolia
-Selon ITIS      (13 juil. 2010)[2]
-Copaifera langsdorfii Desf.
+Copaifera trapezifolia</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Copaifera</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Copaifera</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (13 juil. 2010)[2]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Copaifera langsdorfii Desf.
 Copaifera multijuga Hayne
-Copaifera officinalis (Jacq.) L.
-Selon GRIN[3],[4]
-Copaifera aromatica Dwyer
+Copaifera officinalis (Jacq.) L.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Copaifera</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Copaifera</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Selon GRIN[3],[4]</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Copaifera aromatica Dwyer
 Copaifera baumiana Harms
 Copaifera bracteata Benth.
 Copaifera brasiliensis Dwyer
@@ -564,7 +649,7 @@
 Copaifera paupera (Herzog) Dwyer
 Copaifera piresii Ducke
 Copaifera pubiflora Benth.
-Copaifera religiosa J.Leonard[5]
+Copaifera religiosa J.Leonard
 Copaifera reticulata Ducke
 Copaifera rondonii Hoehne
 Copaifera salikounda Heckel
